--- a/Tests/SAC_Output/inventory.xlsx
+++ b/Tests/SAC_Output/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30000028</t>
+          <t>30000006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2188</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30000037</t>
+          <t>30000008</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3898</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30000062</t>
+          <t>30000026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4037</v>
+        <v>827</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30000063</t>
+          <t>30000028</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2111</v>
+        <v>2188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30000064</t>
+          <t>30000037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6709</v>
+        <v>3898</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30000065</t>
+          <t>30000062</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1760</v>
+        <v>3469</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -683,30 +683,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30000115</t>
+          <t>30000063</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2638</v>
+        <v>2111</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30000136</t>
+          <t>30000064</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48209</v>
+        <v>6709</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30000137</t>
+          <t>30000065</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1076</v>
+        <v>1760</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30000139</t>
+          <t>30000115</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1359</v>
+        <v>2638</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30000153</t>
+          <t>30000136</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -832,16 +832,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1549</v>
+        <v>2945</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -858,30 +858,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30000165</t>
+          <t>30000139</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4343</v>
+        <v>1359</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -893,30 +893,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30000169</t>
+          <t>30000146</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>1324</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -928,30 +928,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30000178</t>
+          <t>30000153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4835</v>
+        <v>1549</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -963,30 +963,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30000201</t>
+          <t>30000160</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1123</v>
+        <v>1785</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30000213</t>
+          <t>30000178</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1547</v>
+        <v>4835</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1033,30 +1033,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30000267</t>
+          <t>30000188</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14868</v>
+        <v>12613</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30000286</t>
+          <t>30000196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2850</v>
+        <v>1357</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1103,30 +1103,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30000301</t>
+          <t>30000201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15946</v>
+        <v>1123</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1138,30 +1138,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30000320</t>
+          <t>30000286</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1506</v>
+        <v>2850</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30000332</t>
+          <t>30000299</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1404</v>
+        <v>20723</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1208,30 +1208,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30000351</t>
+          <t>30000301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1313</v>
+        <v>15946</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1243,30 +1243,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30000376</t>
+          <t>30000304</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17975</v>
+        <v>2249</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1278,30 +1278,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30000376</t>
+          <t>30000351</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12357</v>
+        <v>1313</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30000379</t>
+          <t>30000353</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10349</v>
+        <v>3245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1348,30 +1348,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30000410</t>
+          <t>30000376</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>15789</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1383,30 +1383,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30000411</t>
+          <t>30000376</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4092</v>
+        <v>4446</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1418,30 +1418,30 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30000415</t>
+          <t>30000410</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1328</v>
+        <v>6239</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1453,30 +1453,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30000415</t>
+          <t>30000411</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20006</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22376</v>
+        <v>4092</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>BAXTER SP</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1488,30 +1488,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30000436</t>
+          <t>30000443</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1300</v>
+        <v>14536</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5009</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1593,30 +1593,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30000527</t>
+          <t>30000547</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>36007</v>
+        <v>4145</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30000533</t>
+          <t>30000577</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4200</v>
+        <v>1892</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1663,30 +1663,30 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30000547</t>
+          <t>30000610</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4145</v>
+        <v>17013</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19490</v>
+        <v>3968</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1733,30 +1733,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30000613</t>
+          <t>30000621</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11975</v>
+        <v>1501</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1768,30 +1768,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30000641</t>
+          <t>30000623</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>28345</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1803,7 +1803,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30000655</t>
+          <t>30000635</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1812,16 +1812,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5428</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1838,30 +1838,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30000679</t>
+          <t>30000644</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30676</v>
+        <v>2805</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1873,7 +1873,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30000696</t>
+          <t>30000655</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6344</v>
+        <v>4435</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30000703</t>
+          <t>30000679</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1917,16 +1917,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>119922</v>
+        <v>30676</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30000708</t>
+          <t>30000696</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1782</v>
+        <v>478</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30000724</t>
+          <t>30000701</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37620</v>
+        <v>53008</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30001906</t>
+          <t>30000724</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2022,16 +2022,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>658</v>
+        <v>37620</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2048,30 +2048,30 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30001908</t>
+          <t>30001906</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35308</v>
+        <v>658</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2083,7 +2083,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30002061</t>
+          <t>30002053</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2092,16 +2092,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4557</v>
+        <v>13766</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30002078</t>
+          <t>30002061</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2127,16 +2127,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1115</v>
+        <v>4557</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30002094</t>
+          <t>30002113</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2162,16 +2162,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1307</v>
+        <v>5769</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2197,16 +2197,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1499</v>
+        <v>1253</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2232,16 +2232,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6155</v>
+        <v>1505</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2372,16 +2372,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>29683</v>
+        <v>1549</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2477,16 +2477,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16192</v>
+        <v>1460</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2538,30 +2538,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30003150</t>
+          <t>30003012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>37181</v>
+        <v>5097</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2573,30 +2573,30 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30003170</t>
+          <t>30003150</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3049</v>
+        <v>37181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2608,30 +2608,30 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30003214</t>
+          <t>30003152</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>99936</v>
+        <v>1337</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2643,30 +2643,30 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30003250</t>
+          <t>30003156</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>11920</v>
+        <v>1143</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30003279</t>
+          <t>30003170</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2687,16 +2687,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6680</v>
+        <v>3049</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2713,30 +2713,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30003303</t>
+          <t>30003250</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20005</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5004</v>
+        <v>11920</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PC30</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30003307</t>
+          <t>30003303</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2757,16 +2757,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>470</v>
+        <v>6634</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2783,7 +2783,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30003997</t>
+          <t>30003904</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2792,16 +2792,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1335</v>
+        <v>54850</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30004001</t>
+          <t>30003905</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13318</v>
+        <v>49755</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30004034</t>
+          <t>30003909</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2862,16 +2862,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10550</v>
+        <v>12690</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2888,7 +2888,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30004047</t>
+          <t>30003911</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2802</v>
+        <v>21647</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2923,30 +2923,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30004086</t>
+          <t>30003941</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>20005</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2660</v>
+        <v>39592</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>PC30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30004094</t>
+          <t>30003942</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5088</v>
+        <v>8333</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2993,7 +2993,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30004095</t>
+          <t>30003943</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3002,16 +3002,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2541</v>
+        <v>46108</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30004096</t>
+          <t>30003948</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3037,16 +3037,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5521</v>
+        <v>8684</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3063,30 +3063,30 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30004098</t>
+          <t>30003993</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1862</v>
+        <v>34433</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30004117</t>
+          <t>30003993</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1378</v>
+        <v>18785</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3133,30 +3133,30 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30004118</t>
+          <t>30003995</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20006</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1702</v>
+        <v>44804</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TEST 2 Schedule FG</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>BAXTER SP</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3168,33 +3168,348 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>30003999</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20005</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>3984</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PC30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>30004034</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20005</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5304</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PC30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>30004047</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20005</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5263</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PC30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>30004086</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2660</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bern</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>30004094</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20005</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5088</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>PC30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>30004098</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20006</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1862</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BAXTER SP</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>30004117</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20006</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1378</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>BAXTER SP</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>30004118</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20006</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1702</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BAXTER SP</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>30004119</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>20006</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C87" t="n">
         <v>1192</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2021-10-14</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>TEST 2 Schedule FG</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>BAXTER SP</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>30004129</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bern</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>Inventory</t>
         </is>
